--- a/TuVung/Lesson19/tuvung.xlsx
+++ b/TuVung/Lesson19/tuvung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_LearningJapaneseWebProject\TuVung\Lesson19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED92AE0A-55B9-44C2-9C3F-69838D523597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABB33E0-2B38-435C-9983-BA7286611E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1665" yWindow="1290" windowWidth="21495" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,9 +339,6 @@
     <t>動物をころします</t>
   </si>
   <si>
-    <t>カメラをさわります</t>
-  </si>
-  <si>
     <t>ゴミを捨てます</t>
   </si>
   <si>
@@ -360,9 +357,6 @@
     <t>ネクタイをしめます</t>
   </si>
   <si>
-    <t>けんこうに注意します</t>
-  </si>
-  <si>
     <t>安心します</t>
   </si>
   <si>
@@ -382,6 +376,12 @@
   </si>
   <si>
     <t>かならず</t>
+  </si>
+  <si>
+    <t>けんこうに 注意します</t>
+  </si>
+  <si>
+    <t>カメラにさわります</t>
   </si>
 </sst>
 </file>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,7 +845,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
         <v>99</v>
@@ -892,7 +892,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
         <v>55</v>
@@ -903,7 +903,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
         <v>56</v>
@@ -914,7 +914,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
         <v>57</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
         <v>58</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D14" t="s">
         <v>59</v>
@@ -947,7 +947,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
@@ -966,7 +966,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
         <v>62</v>
@@ -999,7 +999,7 @@
         <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -1039,7 +1039,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
@@ -1050,7 +1050,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26" t="s">
         <v>74</v>
@@ -1061,7 +1061,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
         <v>75</v>
@@ -1072,7 +1072,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
         <v>76</v>
@@ -1083,7 +1083,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D29" t="s">
         <v>77</v>

--- a/TuVung/Lesson19/tuvung.xlsx
+++ b/TuVung/Lesson19/tuvung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_LearningJapaneseWebProject\TuVung\Lesson19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABB33E0-2B38-435C-9983-BA7286611E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A3DE98-9A5F-491F-B45E-6981A9B905A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="1290" windowWidth="21495" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -342,9 +342,6 @@
     <t>ゴミを捨てます</t>
   </si>
   <si>
-    <t>せいふくを 置きます</t>
-  </si>
-  <si>
     <t>入社します</t>
   </si>
   <si>
@@ -382,6 +379,9 @@
   </si>
   <si>
     <t>カメラにさわります</t>
+  </si>
+  <si>
+    <t>せいふくを 置ます</t>
   </si>
 </sst>
 </file>
@@ -771,7 +771,7 @@
   <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,7 +845,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
         <v>99</v>
@@ -892,7 +892,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
         <v>55</v>
@@ -903,7 +903,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
         <v>56</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
         <v>58</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
         <v>59</v>
@@ -947,7 +947,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
@@ -966,7 +966,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
         <v>62</v>
@@ -999,7 +999,7 @@
         <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -1039,7 +1039,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
@@ -1050,7 +1050,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
         <v>74</v>
@@ -1061,7 +1061,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D27" t="s">
         <v>75</v>
@@ -1072,7 +1072,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D28" t="s">
         <v>76</v>
@@ -1083,7 +1083,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
         <v>77</v>
